--- a/data/small/l_data05.xlsx
+++ b/data/small/l_data05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67E6BFE-5402-47D0-8D5E-8C0FB183872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A018A-1FC2-408F-9A85-4D8AE93626AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="266">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -276,33 +273,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -327,138 +309,54 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1</t>
-  </si>
-  <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -471,57 +369,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -766,303 +634,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1159,6 +730,114 @@
   <si>
     <t>12,13,14</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1629,7 +1308,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1319,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +1330,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,7 +1341,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,7 +1352,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1363,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,7 +1374,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,7 +1385,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,7 +1396,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2780,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +2873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -3235,7 +2914,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3303,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3333,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3363,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3379,7 +3058,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3393,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3423,7 +3102,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3453,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3513,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3543,7 +3222,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3573,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3589,7 +3268,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3603,7 +3282,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3633,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3693,7 +3372,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3723,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3753,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3783,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3813,7 +3492,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3873,7 +3552,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3963,7 +3642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3993,7 +3672,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4009,7 +3688,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4023,7 +3702,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4053,7 +3732,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4083,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4113,7 +3792,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4143,7 +3822,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -4173,7 +3852,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4203,7 +3882,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4219,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4263,7 +3942,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4323,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4353,7 +4032,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4383,7 +4062,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -4413,7 +4092,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4583,25 +4262,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4631,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4642,10 +4320,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4653,10 +4331,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,10 +4342,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4675,10 +4353,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,10 +4364,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4697,10 +4375,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4708,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4719,10 +4397,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4730,10 +4408,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4741,10 +4419,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4752,10 +4430,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,10 +4441,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4774,10 +4452,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4785,10 +4463,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4796,10 +4474,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4807,10 +4485,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4818,10 +4496,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4829,10 +4507,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4840,10 +4518,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4851,10 +4529,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4862,10 +4540,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4873,10 +4551,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4884,10 +4562,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4895,10 +4573,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4906,10 +4584,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4917,10 +4595,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4928,10 +4606,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4939,10 +4617,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4950,10 +4628,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4961,10 +4639,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4972,10 +4650,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4983,10 +4661,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4994,10 +4672,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5005,10 +4683,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5016,10 +4694,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5027,10 +4705,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5038,10 +4716,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5049,10 +4727,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5060,10 +4738,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5071,10 +4749,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +4760,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +4771,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +4782,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +4793,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +4804,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +4815,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +4826,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +4837,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +4848,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +4859,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +4870,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +4881,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +4892,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +4914,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +4925,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +4936,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +4947,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +4958,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +4969,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +4980,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +4991,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5002,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5013,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5024,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5035,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5046,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,10 +5057,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5068,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,10 +5079,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5090,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5101,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5112,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5123,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5461,48 +5139,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5510,16 +5174,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,16 +5185,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5544,16 +5196,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5561,16 +5207,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5578,16 +5218,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5595,16 +5229,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5612,16 +5240,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5629,16 +5251,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5646,16 +5262,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5663,16 +5273,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5680,16 +5284,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5697,16 +5295,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,16 +5306,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5731,1444 +5317,934 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>123</v>
       </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
         <v>122</v>
       </c>
-      <c r="D79" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-      <c r="E90" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D98" t="s">
-        <v>167</v>
-      </c>
-      <c r="E98" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" t="s">
-        <v>166</v>
-      </c>
-      <c r="E99" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" t="s">
-        <v>167</v>
-      </c>
-      <c r="E100" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data05.xlsx
+++ b/data/small/l_data05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A018A-1FC2-408F-9A85-4D8AE93626AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14031821-37C6-4F09-9934-027F441B1FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,-1,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,0</t>
   </si>
   <si>
@@ -297,21 +294,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -321,9 +309,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -336,18 +321,9 @@
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -360,18 +336,9 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -379,12 +346,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -732,30 +693,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,-1</t>
   </si>
   <si>
@@ -771,73 +720,181 @@
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
-    <t>0,-1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
-    <t>1,1,0,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
     <t>-1,0,1,1,0</t>
   </si>
   <si>
-    <t>0,0,-1,1,-1</t>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1308,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1398,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +2971,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2982,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3012,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3042,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3058,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3072,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3102,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3132,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3192,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3222,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3252,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3268,7 +3325,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3282,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3312,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3372,7 +3429,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3402,7 +3459,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3432,7 +3489,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3462,7 +3519,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3492,7 +3549,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3552,7 +3609,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3642,7 +3699,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3672,7 +3729,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3688,7 +3745,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3702,7 +3759,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3732,7 +3789,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3762,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3792,7 +3849,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3822,7 +3879,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3852,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3882,7 +3939,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3898,7 +3955,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3942,7 +3999,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4002,7 +4059,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4032,7 +4089,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4062,7 +4119,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -4092,7 +4149,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4262,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B121"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4273,13 +4330,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4355,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4388,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4399,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4421,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4432,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4443,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4454,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4465,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4476,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4487,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4498,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4509,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4520,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4531,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4542,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4553,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4564,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4575,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4586,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4597,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4608,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4619,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4630,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4641,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4652,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4663,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4674,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4685,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4696,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4707,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4718,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4740,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4751,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4762,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4773,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4784,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4795,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4806,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,7 +4820,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4828,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4839,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4850,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4861,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4872,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4883,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4894,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4905,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4916,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +4927,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +4938,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +4949,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +4960,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +4971,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +4982,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,10 +4993,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,10 +5004,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,10 +5015,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,10 +5026,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,10 +5037,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,10 +5048,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,10 +5059,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,10 +5070,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,10 +5081,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5035,10 +5092,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5046,10 +5103,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5057,10 +5114,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5068,10 +5125,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5079,10 +5136,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5090,10 +5147,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,10 +5158,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5112,10 +5169,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5123,10 +5180,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5139,21 +5196,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -5163,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,10 +5231,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5185,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,10 +5253,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,10 +5264,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5218,10 +5275,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,10 +5286,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5240,10 +5297,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,10 +5308,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,10 +5319,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,10 +5330,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5284,10 +5341,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,10 +5352,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5306,10 +5363,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,10 +5374,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5328,10 +5385,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5339,10 +5396,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5350,10 +5407,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,10 +5418,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,10 +5429,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5383,10 +5440,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,10 +5451,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5405,10 +5462,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5416,10 +5473,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5427,10 +5484,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,10 +5495,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,10 +5506,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5460,10 +5517,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,10 +5528,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,10 +5539,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,10 +5550,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,10 +5561,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,10 +5572,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5526,10 +5583,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5537,10 +5594,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,10 +5605,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,10 +5616,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,10 +5627,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5581,10 +5638,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5592,10 +5649,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5603,10 +5660,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,10 +5671,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,10 +5682,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,10 +5693,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,10 +5704,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,10 +5715,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,10 +5726,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5680,10 +5737,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,10 +5748,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5702,10 +5759,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5713,10 +5770,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5724,10 +5781,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,10 +5792,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,10 +5803,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,10 +5814,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,10 +5825,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,10 +5836,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,10 +5847,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5801,10 +5858,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,10 +5869,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,10 +5880,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,10 +5891,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,10 +5902,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,10 +5913,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,10 +5924,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,10 +5935,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,10 +5946,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,10 +5957,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,10 +5968,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,10 +5979,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,10 +5990,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,10 +6001,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,10 +6012,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,10 +6023,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5977,10 +6034,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,10 +6045,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,10 +6056,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" t="s">
         <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,10 +6067,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6021,10 +6078,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6032,10 +6089,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6043,10 +6100,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,10 +6111,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,10 +6122,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,10 +6133,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6087,10 +6144,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,10 +6155,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,10 +6166,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,10 +6177,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6131,10 +6188,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,10 +6199,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6153,10 +6210,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6164,10 +6221,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6175,10 +6232,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6186,10 +6243,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,10 +6254,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,10 +6265,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,10 +6276,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" t="s">
         <v>110</v>
-      </c>
-      <c r="C98" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,10 +6287,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,10 +6298,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
